--- a/output/google_maps_data_Mall_Daerah_Istimewa_Yogyakarta.xlsx
+++ b/output/google_maps_data_Mall_Daerah_Istimewa_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Mall+Daerah+Istimewa+Yogyakarta/@-7.8053374,110.3684985,15z/data=!4m2!2m1!6e6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>(0274) 2924095</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>-7.758809</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.758809</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.399274</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pakuwon+Mall+Jogja/@-7.7588094,110.3812495,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59a17e4e49eb:0xa864a4f7fe95e090!8m2!3d-7.7588094!4d110.3992739!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11gc9tkqyq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pakuwon+Mall+Jogja/@-7.7588094,110.3812495,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59a17e4e49eb:0xa864a4f7fe95e090!8m2!3d-7.7588094!4d110.3992739!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11gc9tkqyq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -579,25 +572,24 @@
           <t>(0274) 4331000</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>-7.782578</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.782578</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.401096</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Plaza+Ambarrukmo/@-7.7825776,110.3830712,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59c2bc1c6023:0x1ce91a3c5aa8b3bc!8m2!3d-7.7825776!4d110.4010956!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fm%2F0vsjsln?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Plaza+Ambarrukmo/@-7.7825776,110.3830712,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59c2bc1c6023:0x1ce91a3c5aa8b3bc!8m2!3d-7.7825776!4d110.4010956!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fm%2F0vsjsln?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>5 jam lalu</t>
         </is>
@@ -624,25 +616,24 @@
           <t>(0274) 551888</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>-7.79337</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.79337</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.36686</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Malioboro+Mall/@-7.7933702,110.3488359,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a58262f8e3f99:0xd57e2a1709526952!8m2!3d-7.7933702!4d110.3668603!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F1td3bvqk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Malioboro+Mall/@-7.7933702,110.3488359,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a58262f8e3f99:0xd57e2a1709526952!8m2!3d-7.7933702!4d110.3668603!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F1td3bvqk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -669,25 +660,24 @@
           <t>(0274) 551888</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.78283</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.78283</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.37912</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Galeria+Mall+-+Yogyakarta/@-7.7828301,110.3610953,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a58318198e939:0xb6283ff15225c290!8m2!3d-7.7828301!4d110.3791197!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F1239jmzy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Galeria+Mall+-+Yogyakarta/@-7.7828301,110.3610953,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a58318198e939:0xb6283ff15225c290!8m2!3d-7.7828301!4d110.3791197!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F1239jmzy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -710,25 +700,24 @@
           <t>(0274) 583661</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>-7.80606</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.80606</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.369637</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jogjatronik+Mall/@-7.8060603,110.3516129,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57852abe3eaf:0x49cdb8ca260de9ed!8m2!3d-7.8060603!4d110.3696373!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11b6dgcvwp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jogjatronik+Mall/@-7.8060603,110.3516129,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57852abe3eaf:0x49cdb8ca260de9ed!8m2!3d-7.8060603!4d110.3696373!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11b6dgcvwp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>4 jam lalu</t>
         </is>
@@ -751,25 +740,24 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>-7.783276</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.783276</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.390645</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lippo+Plaza+Jogja/@-7.783276,110.3726207,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59c556e256a9:0xfcba512d71a233ed!8m2!3d-7.783276!4d110.3906451!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F1yw9kv63m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lippo+Plaza+Jogja/@-7.783276,110.3726207,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59c556e256a9:0xfcba512d71a233ed!8m2!3d-7.783276!4d110.3906451!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F1yw9kv63m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -792,25 +780,24 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>-7.798812</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.798812</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.365737</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Beringharjo+Yogyakarta/@-7.798812,110.3477127,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7af7fe02ca3761:0x39ebbc4df90b410c!8m2!3d-7.798812!4d110.3657371!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQZtYXJrZXTgAQA!16s%2Fg%2F120spzl7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Beringharjo+Yogyakarta/@-7.798812,110.3477127,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7af7fe02ca3761:0x39ebbc4df90b410c!8m2!3d-7.798812!4d110.3657371!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQZtYXJrZXTgAQA!16s%2Fg%2F120spzl7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>4 jam lalu</t>
         </is>
@@ -837,25 +824,24 @@
           <t>(0274) 5027000</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.793114</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.793114</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.366007</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Plaza+Malioboro/@-7.798812,110.3477127,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a592af3174525:0x152161a2f0a43e0!8m2!3d-7.7931145!4d110.3660067!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F120xp6xz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -878,25 +864,24 @@
           <t>(0274) 5027000</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>-7.797183</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.797183</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.364377</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ramai+Mall+Malioboro/@-7.798812,110.3477127,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a578837456b73:0xb78e8db3a749e859!8m2!3d-7.7971827!4d110.3643767!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F1hc0gtpkr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ramai+Mall+Malioboro/@-7.798812,110.3477127,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a578837456b73:0xb78e8db3a749e859!8m2!3d-7.7971827!4d110.3643767!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F1hc0gtpkr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -919,25 +904,24 @@
           <t>(0274) 562482</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.796305</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.796305</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.365559</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mirota+Galery/@-7.798812,110.3477127,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a58263b3bd243:0xa7c719e137b956d6!8m2!3d-7.7963047!4d110.3655591!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F1tvbgrnr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mirota+Galery/@-7.798812,110.3477127,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a58263b3bd243:0xa7c719e137b956d6!8m2!3d-7.7963047!4d110.3655591!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F1tvbgrnr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -964,25 +948,24 @@
           <t>0815-6789-0757</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.1</v>
+        <v>-7.797967</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.797967</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.366011</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Teras+Malioboro+Ketandan/@-7.798812,110.3477127,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a570055cbf1af:0xaac3566d339a5d98!8m2!3d-7.7979669!4d110.3660107!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmZNV1pQY0U1bkVBReABAPoBBAgAEDM!16s%2Fg%2F11wvw27kjt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Teras+Malioboro+Ketandan/@-7.798812,110.3477127,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a570055cbf1af:0xaac3566d339a5d98!8m2!3d-7.7979669!4d110.3660107!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmZNV1pQY0U1bkVBReABAPoBBAgAEDM!16s%2Fg%2F11wvw27kjt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1009,25 +992,24 @@
           <t>0815-6789-0757</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.1</v>
+        <v>-7.779481</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.779481</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.414384</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sahid+J-Walk/@-7.7794813,110.3963593,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59f1dfd2bb61:0x47dcd74b129e21c!8m2!3d-7.7794813!4d110.4143837!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSARBjb3Jwb3JhdGVfb2ZmaWNl4AEA!16s%2Fg%2F11bc96mtkc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sahid+J-Walk/@-7.7794813,110.3963593,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59f1dfd2bb61:0x47dcd74b129e21c!8m2!3d-7.7794813!4d110.4143837!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSARBjb3Jwb3JhdGVfb2ZmaWNl4AEA!16s%2Fg%2F11bc96mtkc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1054,25 +1036,24 @@
           <t>(0274) 485758</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.1</v>
+        <v>-7.8008</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.8008</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.368186</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Shopping+Book+Center+Jogja/@-7.8008,110.3501612,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57d49d9945ff:0xc09dae1002c6b1dd!8m2!3d-7.8008!4d110.3681856!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkhlSFpZVUVaM0VBReABAPoBBAgeEDo!16s%2Fg%2F11g4f5x9j7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Shopping+Book+Center+Jogja/@-7.8008,110.3501612,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57d49d9945ff:0xc09dae1002c6b1dd!8m2!3d-7.8008!4d110.3681856!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkhlSFpZVUVaM0VBReABAPoBBAgeEDo!16s%2Fg%2F11g4f5x9j7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1095,25 +1076,24 @@
           <t>0811-2700-3574</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>-7.793176</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.793176</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.367043</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Krisna+Oleh-Oleh+Nusantara+Jogja/@-7.8008,110.3501612,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59004fc8ee3f:0x62f833426761746b!8m2!3d-7.7931762!4d110.3670428!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjZkVGd0YWpWQlJSQULgAQD6AQQIABBA!16s%2Fg%2F11vxygq6mt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Krisna+Oleh-Oleh+Nusantara+Jogja/@-7.8008,110.3501612,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59004fc8ee3f:0x62f833426761746b!8m2!3d-7.7931762!4d110.3670428!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjZkVGd0YWpWQlJSQULgAQD6AQQIABBA!16s%2Fg%2F11vxygq6mt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -1136,25 +1116,24 @@
           <t>0811-2700-3574</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>-7.760745</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.760745</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.398779</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Digiplus+Pakuwon+Mall+Jogja/@-7.760745,110.3807549,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59651a3cafa9:0x801c99770c4d28f1!8m2!3d-7.760745!4d110.3987793!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSARNlbGVjdHJvbmljc19jb21wYW55mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJVWjA0eVEwbEJFQUXgAQD6AQQIABA3!16s%2Fg%2F11kjpbwmzb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Digiplus+Pakuwon+Mall+Jogja/@-7.760745,110.3807549,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59651a3cafa9:0x801c99770c4d28f1!8m2!3d-7.760745!4d110.3987793!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSARNlbGVjdHJvbmljc19jb21wYW55mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJVWjA0eVEwbEJFQUXgAQD6AQQIABA3!16s%2Fg%2F11kjpbwmzb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1173,25 +1152,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.9</v>
+        <v>-7.783892</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.783892</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.390668</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lippo+Plaza+Jogja+Main+Lobby/@-7.7838925,110.3726431,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59b0d6270f23:0x387156aa5611d416!8m2!3d-7.7838925!4d110.3906675!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFNelpJUjJkblJSQULgAQD6AQUIqQQQIg!16s%2Fg%2F11ldcxzrsj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lippo+Plaza+Jogja+Main+Lobby/@-7.7838925,110.3726431,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59b0d6270f23:0x387156aa5611d416!8m2!3d-7.7838925!4d110.3906675!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFNelpJUjJkblJSQULgAQD6AQUIqQQQIg!16s%2Fg%2F11ldcxzrsj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>5 jam lalu</t>
         </is>
@@ -1210,25 +1188,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>-7.79741</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.79741</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.365796</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampoeng+Ketandan+Yogyakarta/@-7.7974097,110.3477714,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57886adfcafd:0x7b991051e36a4ec2!8m2!3d-7.7974097!4d110.3657958!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUllNaTFtWVZabkVBReABAPoBBQiHARAv!16s%2Fg%2F11cs9cks2_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1251,25 +1228,24 @@
           <t>0815-6789-0757</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>-7.798875</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.798875</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.365037</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Teras+Malioboro+1/@-7.7974097,110.3477714,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57303abb8e6b:0x3b5dfe4d6c5abdf7!8m2!3d-7.798875!4d110.365037!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11snn8lgv2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Teras+Malioboro+1/@-7.7974097,110.3477714,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57303abb8e6b:0x3b5dfe4d6c5abdf7!8m2!3d-7.798875!4d110.365037!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11snn8lgv2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>4 jam lalu</t>
         </is>
@@ -1296,25 +1272,24 @@
           <t>(0274) 557275</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>-7.797762</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.797762</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.365334</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ramayana/@-7.7974097,110.3477714,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a578869eeee71:0x401f346194eacbb8!8m2!3d-7.7977621!4d110.3653338!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTktNRnB4VDJoM1JSQULgAQD6AQQIABAo!16s%2Fg%2F11h0vtrk7m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1337,25 +1312,24 @@
           <t>(0274) 557275</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.4</v>
+        <v>-7.782155</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.782155</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.379106</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/HR+Cell+X+Station+Galeria+Mall/@-7.7821553,110.361082,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a596053695ab7:0x3bad96146f2822c1!8m2!3d-7.7821553!4d110.3791064!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQtvdXRsZXRfbWFsbOABAA!16s%2Fg%2F11vcw956yt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1374,25 +1348,24 @@
           <t>0856-0216-0050</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>-7.79161</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.79161</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.366867</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/AB+Oleh-oleh+Jogja/@-7.7916103,110.3488427,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a594d24db96a7:0x6c2639b33518ae9f!8m2!3d-7.7916103!4d110.3668671!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11txxwy6cy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/AB+Oleh-oleh+Jogja/@-7.7916103,110.3488427,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a594d24db96a7:0x6c2639b33518ae9f!8m2!3d-7.7916103!4d110.3668671!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11txxwy6cy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1415,21 +1388,20 @@
           <t>0812-1509-0298</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
+      <c r="E24" t="n">
         <v>5</v>
       </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/AB+Oleh-oleh+Jogja/@-7.7916103,110.3488427,15z/data=!4m13!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m8!1s0x2e7a594d24db96a7:0x6c2639b33518ae9f!8m2!3d-7.7916103!4d110.3668671!9m1!1b1!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11txxwy6cy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1448,25 +1420,24 @@
           <t>(0274) 582137</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>-7.794353</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.794353</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.365345</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gading/@-7.7916103,110.3488427,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a58263b3bd243:0x1c107463a2b95c03!8m2!3d-7.7943535!4d110.3653448!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F1pxy4bm50?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gading/@-7.7916103,110.3488427,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a58263b3bd243:0x1c107463a2b95c03!8m2!3d-7.7943535!4d110.3653448!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F1pxy4bm50?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1493,25 +1464,24 @@
           <t>0878-3889-3134</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>-7.805872</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.805872</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.369476</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tazmania+Cell+Lantai+UG+Jogjatronik+Mall/@-7.7916103,110.3488427,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57003be1f3a1:0x562c074011cbb7f5!8m2!3d-7.8058723!4d110.3694758!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11gk8rhfcp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tazmania+Cell+Lantai+UG+Jogjatronik+Mall/@-7.7916103,110.3488427,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57003be1f3a1:0x562c074011cbb7f5!8m2!3d-7.8058723!4d110.3694758!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11gk8rhfcp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1530,25 +1500,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.3</v>
+        <v>-7.80333</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.80333</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.366803</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Toko+Sumber+Lestari/@-7.7916103,110.3488427,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57858052cedf:0x8e8d7d8d1e93701f!8m2!3d-7.8033296!4d110.3668025!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F1hm2jrb0y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1571,25 +1540,24 @@
           <t>0896-5294-9950</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>-7.805972</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.805972</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.369806</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Proxy+Phone+Store+Jogjatronik/@-7.7916103,110.3488427,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57a4ff4e8941:0x8a42631a04db2a1b!8m2!3d-7.8059724!4d110.3698063!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlBlWFJFWWpaM1JSQULgAQD6AQQIABAR!16s%2Fg%2F11s42sq59m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1612,25 +1580,24 @@
           <t>0896-5294-9950</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-7.805407</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.805407</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.372393</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/EkaHandbags/@-7.7916103,110.3488427,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a5765c9438e17:0xa6abaea275fa9e45!8m2!3d-7.8054068!4d110.3723927!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11h_4pblq0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1645,25 +1612,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.7</v>
+        <v>-7.790705</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.790705</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.365955</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Malioboro/@-7.7916103,110.3488427,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a5825f646aab5:0xb83c468c550df81f!8m2!3d-7.7907048!4d110.365955!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXphMk41YXpWblJSQULgAQD6AQQIPBA1!16s%2Fg%2F11g652ld_r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1678,25 +1644,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.7</v>
+        <v>-7.799976</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.799976</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.353636</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JNM+Bloc/@-7.7999756,110.3356113,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a5764a3d9f907:0x6275e81343407228!8m2!3d-7.7999756!4d110.3536357!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11rwllxhvz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JNM+Bloc/@-7.7999756,110.3356113,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a5764a3d9f907:0x6275e81343407228!8m2!3d-7.7999756!4d110.3536357!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11rwllxhvz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1719,25 +1684,24 @@
           <t>0815-6789-8800</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.8</v>
+        <v>-7.808414</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.808414</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.358604</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kadipaten+Gallery/@-7.7999756,110.3356113,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57925eae0c5d:0x6cd187bf1757847a!8m2!3d-7.8084136!4d110.3586038!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQtvdXRsZXRfbWFsbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYWFHTnlNSFYzUlJBQuABAPoBBAgAED4!16s%2Fg%2F11bzq2qkf8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1756,25 +1720,24 @@
           <t>0813-3565-1310</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>-7.78404</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.78404</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.390669</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Yepposkin+Lippo+Plaza+Jogja/@-7.7840397,110.3726442,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a598de09173b9:0x1d8048773d537511!8m2!3d-7.7840397!4d110.3906686!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmFkVFJsUVhSM1JSQULgAQD6AQQIFBAO!16s%2Fg%2F11hzw4qdc0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1789,25 +1752,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>-7.793171</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.793171</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.366563</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Alcohol+yogyakarta/@-7.7931709,110.3485385,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59d59c3ce791:0xb3c5195c764b9e98!8m2!3d-7.7931709!4d110.3665629!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQtvdXRsZXRfbWFsbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSZk1uVnhjVXRuRUFF4AEA-gEECAAQIA!16s%2Fg%2F11wtdzf1s_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1822,25 +1784,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F35" t="n">
-        <v>3.7</v>
+        <v>-7.796839</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.796839</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.365437</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/MINISO+-+Ruko+Malioboro/@-7.7931709,110.3485385,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57007da5f6f5:0x73d1aeda71ee5e8!8m2!3d-7.7968385!4d110.3654374!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSARBkZXBhcnRtZW50X3N0b3JlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU55YTBsRWJ6VkJSUkFC4AEA-gEECAAQMg!16s%2Fg%2F11vk85_bf7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1859,25 +1820,24 @@
           <t>0899-8595-256</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>-7.793019</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.793019</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.366038</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/malioboro+milik+bersama/@-7.7931709,110.3485385,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59dc263ca9c3:0xaf056d7446e83659!8m2!3d-7.7930195!4d110.3660375!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11ghff14m6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1896,25 +1856,24 @@
           <t>0899-8595-256</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>-7.797055</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.797055</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.36447</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dhelano+Mobille/@-7.7931709,110.3485385,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a573bbb395c5b:0x41a23c8eb500a3bf!8m2!3d-7.7970553!4d110.3644703!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11lxl98jsq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dhelano+Mobille/@-7.7931709,110.3485385,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a573bbb395c5b:0x41a23c8eb500a3bf!8m2!3d-7.7970553!4d110.3644703!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11lxl98jsq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1937,25 +1896,24 @@
           <t>0813-1997-3828</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>-7.753233</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.753233</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.359983</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Loading+Dock+Jogja+City+Mall/@-7.7532328,110.3419587,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59f80ee7fd81:0xb398316fcea9546b!8m2!3d-7.7532328!4d110.3599831!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11lgd1sq0g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Loading+Dock+Jogja+City+Mall/@-7.7532328,110.3419587,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59f80ee7fd81:0xb398316fcea9546b!8m2!3d-7.7532328!4d110.3599831!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11lgd1sq0g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1974,25 +1932,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.6</v>
+        <v>-7.783669</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.783669</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.392461</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jogja+Gadget+Plaza+Ambarukmo/@-7.7836694,110.374437,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59f011bba391:0xb17252f56e35ba53!8m2!3d-7.7836694!4d110.3924614!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSARFlbGVjdHJvbmljc19zdG9yZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdGJWQllRV1IzRUFF4AEA-gEECAAQHQ!16s%2Fg%2F1q5bkq4nx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jogja+Gadget+Plaza+Ambarukmo/@-7.7836694,110.374437,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59f011bba391:0xb17252f56e35ba53!8m2!3d-7.7836694!4d110.3924614!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSARFlbGVjdHJvbmljc19zdG9yZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdGJWQllRV1IzRUFF4AEA-gEECAAQHQ!16s%2Fg%2F1q5bkq4nx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2011,25 +1968,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.7</v>
+        <v>-7.791582</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.791582</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.363865</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Malio17+Oleh+Oleh+Jogja+Sosrowijayan/@-7.7915821,110.3458402,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59754f4f2829:0x60a21c4a9d4482ea!8m2!3d-7.7915821!4d110.3638646!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQtvdXRsZXRfbWFsbOABAA!16s%2Fg%2F11t5tjjr7z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Malio17+Oleh+Oleh+Jogja+Sosrowijayan/@-7.7915821,110.3458402,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59754f4f2829:0x60a21c4a9d4482ea!8m2!3d-7.7915821!4d110.3638646!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQtvdXRsZXRfbWFsbOABAA!16s%2Fg%2F11t5tjjr7z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2052,25 +2008,24 @@
           <t>(0274) 419885</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.3</v>
+        <v>-7.806067</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.806067</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.369483</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Doraemon/@-7.7915821,110.3458402,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57852ae9116b:0xbac1189605ce3032!8m2!3d-7.806067!4d110.369483!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11bc7qfr68?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2089,25 +2044,24 @@
           <t>(0274) 419885</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.3</v>
+        <v>-7.760371</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.760371</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.398579</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/H%26M+Pakuwon+Mall+Jogja/@-7.7603715,110.3805547,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a591d9bbc6961:0xd2b6f314be7dfabc!8m2!3d-7.7603715!4d110.3985791!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ5jbG90aGluZ19zdG9yZeABAA!16s%2Fg%2F11c2nqfgs0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/H%26M+Pakuwon+Mall+Jogja/@-7.7603715,110.3805547,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a591d9bbc6961:0xd2b6f314be7dfabc!8m2!3d-7.7603715!4d110.3985791!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ5jbG90aGluZ19zdG9yZeABAA!16s%2Fg%2F11c2nqfgs0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2130,25 +2084,24 @@
           <t>(0274) 377618</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.6</v>
+        <v>-7.806604</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.806604</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.369072</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Toko+Berdikari(%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%A7%EA%A6%BC%EA%A6%82%EA%A6%A3%EA%A6%B6%EA%A6%8F%EA%A6%AB%EA%A6%B6)/@-7.8066036,110.3510472,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a579ad10b2397:0x5561d69cbc41cf86!8m2!3d-7.8066036!4d110.3690716!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTVlVnA1V0hkUlJSQULgAQD6AQQIOBA8!16s%2Fg%2F1hm4cgxlc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2167,25 +2120,24 @@
           <t>0881-2731-511</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>-7.805087</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.805087</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.37191</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Erla+adv/@-7.8066036,110.3510472,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57df7536f1cd:0x53e0b51506205f04!8m2!3d-7.8050867!4d110.3719103!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11fmgr70b8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2204,25 +2156,24 @@
           <t>0858-7878-3699</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.5</v>
+        <v>-7.79328</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.79328</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.366077</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Oleh-Oleh+Kaos+Khas+Jogja/@-7.8066036,110.3510472,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a5827d1c96617:0xcd4f5025e2752af!8m2!3d-7.7932796!4d110.3660767!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlNNUzFsVFhSM1JSQULgAQD6AQQIABAX!16s%2Fg%2F1hm1x3vkq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2241,25 +2192,24 @@
           <t>0858-7878-3699</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.5</v>
+        <v>-7.792604</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.792604</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.365742</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%AB%EA%A6%A9%EA%A6%AA%EA%A6%A4/@-7.7926037,110.3477172,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a5995bd024e37:0x91ccee1d5cf21805!8m2!3d-7.7926037!4d110.3657416!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11sj68hjtv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2274,25 +2224,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.6</v>
+        <v>-7.800505</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.800505</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.368185</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Toko+Buku+Taman+Pintar+%EA%A7%8B%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%A7%EA%A6%B8%EA%A6%8F%EA%A6%B8%EA%A6%A0%EA%A6%A9%EA%A6%A4%EA%A7%80%EA%A6%A5%EA%A6%B6%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%82/@-7.7926037,110.3477172,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a5700330f9629:0x3b88245d1c06d3f5!8m2!3d-7.8005051!4d110.3681846!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlhObkZVU1RkblJSQULgAQD6AQQIERAZ!16s%2Fg%2F11gjx08jsj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2307,25 +2256,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.6</v>
+        <v>-7.800027</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.800027</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.371097</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Modeng+Jaya/@-7.7926037,110.3477172,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a5786e856622d:0x58810446271d0b3b!8m2!3d-7.8000272!4d110.371097!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhlSEZZWkd0QlJSQULgAQD6AQQIABBH!16s%2Fg%2F1pp2vd1ym?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Modeng+Jaya/@-7.7926037,110.3477172,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a5786e856622d:0x58810446271d0b3b!8m2!3d-7.8000272!4d110.371097!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhlSEZZWkd0QlJSQULgAQD6AQQIABBH!16s%2Fg%2F1pp2vd1ym?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2348,25 +2296,24 @@
           <t>0882-3301-1887</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.7</v>
+        <v>-7.796342</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.796342</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.365763</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Toko+Surya+Indah/@-7.7926037,110.3477172,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57881bc2533d:0x30849fc4bfbbd935!8m2!3d-7.7963419!4d110.3657631!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F1hm2py0tf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2386,22 +2333,21 @@
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>-7.782857</v>
+      </c>
       <c r="G50" t="n">
-        <v>-7.782857</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.379109</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Q+Pee+Galeria+Mall/@-7.782857,110.3610845,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a59cd2b9b98b1:0xe71fc8237af99266!8m2!3d-7.782857!4d110.3791089!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11bc7q1f0k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2421,22 +2367,21 @@
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>-7.806114</v>
+      </c>
       <c r="G51" t="n">
-        <v>-7.806114</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.369639</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tymesquareshop/@-7.806114,110.3516146,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a5784d5508353:0x15ac3232410bd87b!8m2!3d-7.806114!4d110.369639!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F1pzs6k5y4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2455,25 +2400,24 @@
           <t>0819-1158-4534</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.7</v>
+        <v>-7.799139</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.799139</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.370835</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Amelia+Olshop/@-7.806114,110.3516146,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a5742f5fcee31:0xa22c08ee22bb877f!8m2!3d-7.7991394!4d110.3708345!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmhhR05FUTNoQlJSQULgAQD6AQQIABAT!16s%2Fg%2F11ny1ym926?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2488,25 +2432,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.7</v>
+        <v>-7.79894</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.79894</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.369247</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Inter/@-7.806114,110.3516146,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57867b1ddc4b:0x16af7a921ebebdc9!8m2!3d-7.7989397!4d110.3692468!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F1hm68c48k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Inter/@-7.806114,110.3516146,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a57867b1ddc4b:0x16af7a921ebebdc9!8m2!3d-7.7989397!4d110.3692468!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhkgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F1hm68c48k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2529,25 +2472,24 @@
           <t>0811-2773-939</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-7.816116</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.816116</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.379619</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/TOKOKU+JOGJA/@-7.8161157,110.361595,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a574bef281ce5:0xc27fcd31801ca84b!8m2!3d-7.8161157!4d110.3796194!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXLgAQA!16s%2Fg%2F11h4vvkcyz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2566,21 +2508,20 @@
           <t>0811-2773-939</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
+      <c r="E55" t="n">
         <v>5</v>
       </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/GUNSHOP88/@-7.8060604,110.3524029,15z/data=!4m11!1m3!2m2!1sMall+Daerah+Istimewa+Yogyakarta!6e6!3m6!1s0x2e7a570012dfa679:0xbb33a9a411b63ecf!8m2!3d-7.8060604!4d110.3704273!15sCh9NYWxsIERhZXJhaCBJc3RpbWV3YSBZb2d5YWthcnRhWiEiH21hbGwgZGFlcmFoIGlzdGltZXdhIHlvZ3lha2FydGGSAQ9zaG9wcGluZ19jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlViMTlwWmkxQlJSQULgAQD6AQQIABAb!16s%2Fg%2F11vxjpvkmm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMy4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
